--- a/04_Model_Saved/NN_full_RepeatedKFold_v3_BO_test/hypertable_sort_NN_full_RepeatedKFold_v3_bo_ens_123.xlsx
+++ b/04_Model_Saved/NN_full_RepeatedKFold_v3_BO_test/hypertable_sort_NN_full_RepeatedKFold_v3_bo_ens_123.xlsx
@@ -537,126 +537,126 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3154037898420378</v>
+        <v>0.40867665887106</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3154037898420378</v>
+        <v>0.40867665887106</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02674828619463369</v>
+        <v>0.03279999135527759</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08574248820300062</v>
+        <v>0.3359704561717811</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5450650914810752</v>
+        <v>0.481382861570339</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03727019977445403</v>
+        <v>0.03433886264450848</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01622637261481335</v>
+        <v>0.03126112006604671</v>
       </c>
       <c r="H2" t="n">
         <v>128</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.296447573373039</v>
+        <v>0.1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4120111047648317</v>
+        <v>0.1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.004168151289819288</v>
+        <v>0.0005</v>
       </c>
       <c r="R2" t="n">
-        <v>0.005838973540523841</v>
+        <v>0.0001</v>
       </c>
       <c r="S2" t="n">
         <v>32</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2710876988152378</v>
+        <v>0.4030557613350829</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3154037898420378</v>
+        <v>0.40867665887106</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12850547262157</v>
+        <v>0.03766601681321238</v>
       </c>
       <c r="D3" t="n">
-        <v>0.255805309673952</v>
+        <v>0.2984368542304953</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2863700879565234</v>
+        <v>0.5076746684396704</v>
       </c>
       <c r="F3" t="n">
-        <v>0.138002416032056</v>
+        <v>0.05460750591009855</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1190085292110841</v>
+        <v>0.02072452771632622</v>
       </c>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>64</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>64</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3363992358846076</v>
+        <v>0.1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2049045632290958</v>
+        <v>0.1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.005599936575734377</v>
+        <v>0.0001</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002253807999495526</v>
+        <v>0.0005</v>
       </c>
       <c r="S3" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_RepeatedKFold_v3_BO_test/hypertable_sort_NN_full_RepeatedKFold_v3_bo_ens_123.xlsx
+++ b/04_Model_Saved/NN_full_RepeatedKFold_v3_BO_test/hypertable_sort_NN_full_RepeatedKFold_v3_bo_ens_123.xlsx
@@ -537,25 +537,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.40867665887106</v>
+        <v>0.3938091759676011</v>
       </c>
       <c r="B2" t="n">
-        <v>0.40867665887106</v>
+        <v>0.3938091759676011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03279999135527759</v>
+        <v>0.03410588132683188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3359704561717811</v>
+        <v>0.3104601998412974</v>
       </c>
       <c r="E2" t="n">
-        <v>0.481382861570339</v>
+        <v>0.4771581520939048</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03433886264450848</v>
+        <v>0.03614040925167501</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03126112006604671</v>
+        <v>0.03207135340198874</v>
       </c>
       <c r="H2" t="n">
         <v>128</v>
@@ -599,25 +599,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4030557613350829</v>
+        <v>0.3652031486554463</v>
       </c>
       <c r="B3" t="n">
-        <v>0.40867665887106</v>
+        <v>0.3938091759676011</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03766601681321238</v>
+        <v>0.0394129753112793</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2984368542304953</v>
+        <v>0.2391317656520157</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5076746684396704</v>
+        <v>0.4912745316588767</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05460750591009855</v>
+        <v>0.05742828207711379</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02072452771632622</v>
+        <v>0.02139766854544481</v>
       </c>
       <c r="H3" t="n">
         <v>128</v>
